--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_232.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_232.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min'], ['A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.45</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6), (28.02, 30.1)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (71.7, 78.4)]</t>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:15.027029', '0:00:21.737596')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (74.96, 82.28)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14), (36.6, 39.0)]</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:00:00.820000', '0:00:06.760000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1454741379310345</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[('0:02:13.780000', '0:02:15.340000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>[('0:00:31.840929', '0:00:39.410634')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (53.46, 62.74), (0.38, 6.26)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98), (35.88, 37.42), (9.1, 13.86)]</t>
+          <t>[('0:02:30.160000', '0:02:34.940000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:38.280000', '0:02:43.560000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:01:47.900000', '0:01:49.300000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(68.82, 84.54)]</t>
+          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(16.24, 21.16)]</t>
+          <t>[('0:00:20.580000', '0:00:32.500000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:43.380000', '0:00:45.800000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[('0:00:03.900000', '0:00:07.720000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:11.620000', '0:00:15.600000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(90.14, 98.78)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(111.46, 124.8)]</t>
+          <t>[('0:00:09.900000', '0:00:26.980000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:02.860000', '0:00:07.500000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(66.98, 83.84)]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(107.9, 109.3)]</t>
+          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(62.5, 72.76)]</t>
+          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:03.129454', '0:00:05.822970')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(2.86, 7.5)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(11.5, 28.96)]</t>
+          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:07.580000', '0:00:20.100000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(67.76, 84.78)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(16.24, 21.16)]</t>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06)]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:01.922018', '0:00:25.350952')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:03:12.882000', '0:04:13.747000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(111.28, 124.16)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(34.86, 42.08)]</t>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.142059)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(44.82, 47.28)]</t>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_139</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2217245240761478</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E', 'A', 'D', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'D', 'G', 'C', 'D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(51.315598, 63.292358)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(50.506553, 60.804603)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
